--- a/l10n/localization_20_languages.xlsx
+++ b/l10n/localization_20_languages.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyeseul/Developer/repository/TimerStamp/l10n/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AE04CE-38A3-9F49-963E-41E0BE5F9AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10720" yWindow="2540" windowWidth="45460" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="508">
   <si>
     <t>key</t>
   </si>
@@ -112,18 +118,6 @@
     <t>%d分集中完了！</t>
   </si>
   <si>
-    <t>認証用の写真を撮る</t>
-  </si>
-  <si>
-    <t>旋转分针设置时间</t>
-  </si>
-  <si>
-    <t>专注%d分钟完成！</t>
-  </si>
-  <si>
-    <t>拍摄认证照片</t>
-  </si>
-  <si>
     <t>旋轉分針設置時間</t>
   </si>
   <si>
@@ -136,15 +130,9 @@
     <t>Faites tourner l’aiguille des minutes pour régler l’heure</t>
   </si>
   <si>
-    <t>Concentration terminée pendant %d minutes !</t>
-  </si>
-  <si>
     <t>Prendre une photo d’authentification</t>
   </si>
   <si>
-    <t>Drehen Sie den Minutenzeiger, um die Uhrzeit einzustellen</t>
-  </si>
-  <si>
     <t>Konzentration für %d Minuten abgeschlossen!</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>Tomar foto de autenticación</t>
   </si>
   <si>
-    <t>Поверните минутную стрелку, чтобы установить время</t>
-  </si>
-  <si>
     <t>Фокус завершён за %d минут!</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
     <t>Focus voltooid na %d minuten!</t>
   </si>
   <si>
-    <t>Maak verificatiefoto</t>
-  </si>
-  <si>
     <t>Vrid minutvisaren för att ställa in tiden</t>
   </si>
   <si>
@@ -220,18 +202,6 @@
     <t>%d dakikalık odaklanma tamamlandı!</t>
   </si>
   <si>
-    <t>Kimlik doğrulama fotoğrafı çek</t>
-  </si>
-  <si>
-    <t>قم بتحريك عقرب الدقائق لضبط الوقت</t>
-  </si>
-  <si>
-    <t>تم التركيز لمدة %d دقيقة!</t>
-  </si>
-  <si>
-    <t>التقط صورة التحقق</t>
-  </si>
-  <si>
     <t>Xoay kim phút để đặt thời gian</t>
   </si>
   <si>
@@ -244,42 +214,3825 @@
     <t>หมุนเข็มนาทีเพื่อกำหนดเวลา</t>
   </si>
   <si>
-    <t>เสร็จสิ้นการโฟกัส %d นาที!</t>
-  </si>
-  <si>
-    <t>ถ่ายภาพการยืนยันตัวตน</t>
-  </si>
-  <si>
-    <t>Putar jarum menit untuk mengatur waktu</t>
-  </si>
-  <si>
     <t>Fokus selesai selama %d menit!</t>
   </si>
   <si>
     <t>Ambil foto autentikasi</t>
   </si>
   <si>
-    <t>Putar jarum menit untuk menetapkan waktu</t>
+    <r>
+      <t>旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>针设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+  </si>
+  <si>
+    <t>Drehen Sie den Minutenzeiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> um die Uhrzeit einzustellen</t>
+  </si>
+  <si>
+    <t>Поверните минутную стрелку</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> чтобы установить время</t>
+  </si>
+  <si>
+    <r>
+      <t>قم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>بتحريك</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>عقرب</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الدقائق</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>لضبط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الوقت</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注%d分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成！</t>
+    </r>
+  </si>
+  <si>
+    <t>Concentration terminée pendant %d minutes !</t>
+  </si>
+  <si>
+    <r>
+      <t>تم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>التركيز</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>لمدة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>دقيقة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>เสร็จสิ้นการโฟกัส</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>นาที</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>認証用の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を撮る</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>拍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>摄认证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>照片</t>
+    </r>
+  </si>
+  <si>
+    <t>Authenticatie foto maken</t>
+  </si>
+  <si>
+    <r>
+      <t>Do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rulama foto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rafı çek</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>التقاط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>صورة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>للتحقق</t>
+    </r>
+  </si>
+  <si>
+    <t>ถ่ายภาพยืนยัน</t>
+  </si>
+  <si>
+    <t>Ambil gambar pengesahan</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>Aceptar</t>
+  </si>
+  <si>
+    <t>ОК</t>
+  </si>
+  <si>
+    <t>Tamam</t>
+  </si>
+  <si>
+    <t>موافق</t>
+  </si>
+  <si>
+    <t>ตกลง</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Annuler</t>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t>Отмена</t>
+  </si>
+  <si>
+    <t>Annulla</t>
+  </si>
+  <si>
+    <t>Annuleren</t>
+  </si>
+  <si>
+    <t>Avbryt</t>
+  </si>
+  <si>
+    <t>Peruuta</t>
+  </si>
+  <si>
+    <r>
+      <t>İ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ptal</t>
+    </r>
+  </si>
+  <si>
+    <t>إلغاء</t>
+  </si>
+  <si>
+    <t>Hủy</t>
+  </si>
+  <si>
+    <t>ยกเลิก</t>
+  </si>
+  <si>
+    <t>Batal</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>저장</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>儲存</t>
+  </si>
+  <si>
+    <t>Enregistrer</t>
+  </si>
+  <si>
+    <t>Speichern</t>
+  </si>
+  <si>
+    <t>Guardar</t>
+  </si>
+  <si>
+    <t>Сохранить</t>
+  </si>
+  <si>
+    <t>Salvar</t>
+  </si>
+  <si>
+    <t>Salva</t>
+  </si>
+  <si>
+    <t>Opslaan</t>
+  </si>
+  <si>
+    <t>Spara</t>
+  </si>
+  <si>
+    <t>Tallenna</t>
+  </si>
+  <si>
+    <t>Kaydet</t>
+  </si>
+  <si>
+    <t>حفظ</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <t>บันทึก</t>
+  </si>
+  <si>
+    <t>Simpan</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Fertig</t>
+  </si>
+  <si>
+    <t>Listo</t>
+  </si>
+  <si>
+    <t>Готово</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Fatto</t>
+  </si>
+  <si>
+    <t>Klaar</t>
+  </si>
+  <si>
+    <t>Klar</t>
+  </si>
+  <si>
+    <t>Valmis</t>
+  </si>
+  <si>
+    <t>Tamamlandı</t>
+  </si>
+  <si>
+    <t>تم</t>
+  </si>
+  <si>
+    <t>Hoàn tất</t>
+  </si>
+  <si>
+    <t>เสร็จสิ้น</t>
+  </si>
+  <si>
+    <t>Selesai</t>
+  </si>
+  <si>
+    <t>photo_source_title</t>
+  </si>
+  <si>
+    <t>사진을 어떻게 가져올까요?</t>
+  </si>
+  <si>
+    <t>How would you like to get your photo?</t>
+  </si>
+  <si>
+    <r>
+      <t>写真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の取得方法を選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>してください</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如何</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取照片？</t>
+    </r>
+  </si>
+  <si>
+    <t>如何取得照片？</t>
+  </si>
+  <si>
+    <t>Comment souhaitez-vous obtenir votre photo ?</t>
+  </si>
+  <si>
+    <t>Wie möchten Sie Ihr Foto erhalten?</t>
+  </si>
+  <si>
+    <t>¿Cómo le gustaría obtener su foto?</t>
+  </si>
+  <si>
+    <t>Как вы хотите получить фото?</t>
+  </si>
+  <si>
+    <t>Como você gostaria de obter sua foto?</t>
+  </si>
+  <si>
+    <t>Come vuoi acquisire la foto?</t>
+  </si>
+  <si>
+    <t>Hoe wilt u uw foto verkrijgen?</t>
+  </si>
+  <si>
+    <t>Hur vill du hämta din bild?</t>
+  </si>
+  <si>
+    <t>Miten haluat hakea valokuvasi?</t>
+  </si>
+  <si>
+    <r>
+      <t>Foto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rafınızı nasıl almak istersiniz?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>كيف</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>تريد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الحصول</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>على</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>صورتك؟</t>
+    </r>
+  </si>
+  <si>
+    <t>Bạn muốn lấy ảnh bằng cách nào?</t>
+  </si>
+  <si>
+    <r>
+      <t>คุณต้องการนำเข้ารูปภาพอย่างไร</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Bagaimana Anda ingin mendapatkan foto Anda?</t>
+  </si>
+  <si>
+    <t>Bagaimana anda ingin mendapatkan gambar anda?</t>
+  </si>
+  <si>
+    <t>photo_take_new</t>
+  </si>
+  <si>
+    <t>사진 찍기</t>
+  </si>
+  <si>
+    <t>Take new photo</t>
+  </si>
+  <si>
+    <r>
+      <t>新しい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を撮る</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>拍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>摄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新照片</t>
+    </r>
+  </si>
+  <si>
+    <t>拍攝新照片</t>
+  </si>
+  <si>
+    <t>Prendre une nouvelle photo</t>
+  </si>
+  <si>
+    <t>Neues Foto aufnehmen</t>
+  </si>
+  <si>
+    <t>Tomar nueva foto</t>
+  </si>
+  <si>
+    <t>Сделать новое фото</t>
+  </si>
+  <si>
+    <t>Tirar nova foto</t>
+  </si>
+  <si>
+    <t>Scatta nuova foto</t>
+  </si>
+  <si>
+    <t>Nieuwe foto maken</t>
+  </si>
+  <si>
+    <t>Ta nytt foto</t>
+  </si>
+  <si>
+    <t>Ota uusi kuva</t>
+  </si>
+  <si>
+    <r>
+      <t>Yeni foto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>raf çek</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>التقاط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>صورة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>جديدة</t>
+    </r>
+  </si>
+  <si>
+    <t>Chụp ảnh mới</t>
+  </si>
+  <si>
+    <t>ถ่ายภาพใหม่</t>
+  </si>
+  <si>
+    <t>Ambil foto baru</t>
+  </si>
+  <si>
+    <t>Ambil gambar baru</t>
+  </si>
+  <si>
+    <t>photo_choose_library</t>
+  </si>
+  <si>
+    <t>보관함에서 선택</t>
+  </si>
+  <si>
+    <t>Choose from library</t>
+  </si>
+  <si>
+    <r>
+      <t>ライブラリから選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>択</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>册选择</t>
+    </r>
+  </si>
+  <si>
+    <t>從相簿選擇</t>
+  </si>
+  <si>
+    <t>Choisir dans la bibliothèque</t>
+  </si>
+  <si>
+    <t>Aus Bibliothek wählen</t>
+  </si>
+  <si>
+    <t>Elegir de la biblioteca</t>
+  </si>
+  <si>
+    <t>Выбрать из библиотеки</t>
+  </si>
+  <si>
+    <t>Escolher da biblioteca</t>
+  </si>
+  <si>
+    <t>Scegli dalla libreria</t>
+  </si>
+  <si>
+    <t>Kies uit bibliotheek</t>
+  </si>
+  <si>
+    <t>Välj från biblioteket</t>
+  </si>
+  <si>
+    <t>Valitse kirjastosta</t>
+  </si>
+  <si>
+    <t>Kütüphaneden seç</t>
+  </si>
+  <si>
+    <r>
+      <t>اختيار</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>من</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>المكتبة</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chọn từ th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> viện</t>
+    </r>
+  </si>
+  <si>
+    <t>เลือกจากคลังภาพ</t>
+  </si>
+  <si>
+    <t>Pilih dari perpustakaan</t>
+  </si>
+  <si>
+    <t>Pilih dari pustaka</t>
+  </si>
+  <si>
+    <t>photo_save_success</t>
+  </si>
+  <si>
+    <t>이미지가 저장되었습니다!</t>
+  </si>
+  <si>
+    <t>Image saved successfully!</t>
+  </si>
+  <si>
+    <r>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像が保存されました！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>片已保存！</t>
+    </r>
+  </si>
+  <si>
+    <t>圖片已儲存！</t>
+  </si>
+  <si>
+    <t>Image enregistrée avec succès !</t>
+  </si>
+  <si>
+    <t>Bild erfolgreich gespeichert!</t>
+  </si>
+  <si>
+    <t>¡Imagen guardada exitosamente!</t>
+  </si>
+  <si>
+    <t>Изображение сохранено!</t>
+  </si>
+  <si>
+    <t>Imagem salva com sucesso!</t>
+  </si>
+  <si>
+    <t>Immagine salvata!</t>
+  </si>
+  <si>
+    <t>Afbeelding succesvol opgeslagen!</t>
+  </si>
+  <si>
+    <t>Bilden sparades!</t>
+  </si>
+  <si>
+    <t>Kuva tallennettu onnistuneesti!</t>
+  </si>
+  <si>
+    <r>
+      <t>Resim ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arıyla kaydedildi!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>تم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>حفظ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الصورة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>بنجاح</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ã l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u ảnh!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>บันทึกภาพแล้ว</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>Gambar berhasil disimpan!</t>
+  </si>
+  <si>
+    <t>Imej berjaya disimpan!</t>
+  </si>
+  <si>
+    <t>timer_start</t>
+  </si>
+  <si>
+    <t>시작</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <r>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>始</t>
+    </r>
+  </si>
+  <si>
+    <t>Démarrer</t>
+  </si>
+  <si>
+    <t>Starten</t>
+  </si>
+  <si>
+    <t>Iniciar</t>
+  </si>
+  <si>
+    <t>Начать</t>
+  </si>
+  <si>
+    <t>Avvia</t>
+  </si>
+  <si>
+    <t>Starta</t>
+  </si>
+  <si>
+    <t>Aloita</t>
+  </si>
+  <si>
+    <r>
+      <t>Ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+  </si>
+  <si>
+    <t>بدء</t>
+  </si>
+  <si>
+    <t>Bắt đầu</t>
+  </si>
+  <si>
+    <t>เริ่มต้น</t>
+  </si>
+  <si>
+    <t>Mulai</t>
+  </si>
+  <si>
+    <t>Mulakan</t>
+  </si>
+  <si>
+    <t>timer_pause</t>
+  </si>
+  <si>
+    <t>일시정지</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>一時停止</t>
+  </si>
+  <si>
+    <r>
+      <t>暂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停</t>
+    </r>
+  </si>
+  <si>
+    <t>暫停</t>
+  </si>
+  <si>
+    <t>Pausar</t>
+  </si>
+  <si>
+    <t>Пауза</t>
+  </si>
+  <si>
+    <t>Pausa</t>
+  </si>
+  <si>
+    <t>Pauze</t>
+  </si>
+  <si>
+    <t>Tauko</t>
+  </si>
+  <si>
+    <t>Duraklat</t>
+  </si>
+  <si>
+    <r>
+      <t>إيقاف</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>مؤقت</t>
+    </r>
+  </si>
+  <si>
+    <t>Tạm dừng</t>
+  </si>
+  <si>
+    <t>หยุดชั่วคราว</t>
+  </si>
+  <si>
+    <t>Jeda</t>
+  </si>
+  <si>
+    <t>timer_reset</t>
+  </si>
+  <si>
+    <t>초기화</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>リセット</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <t>Réinitialiser</t>
+  </si>
+  <si>
+    <t>Zurücksetzen</t>
+  </si>
+  <si>
+    <t>Restablecer</t>
+  </si>
+  <si>
+    <t>Сброс</t>
+  </si>
+  <si>
+    <t>Redefinir</t>
+  </si>
+  <si>
+    <t>Ripristina</t>
+  </si>
+  <si>
+    <t>Återställ</t>
+  </si>
+  <si>
+    <t>Nollaa</t>
+  </si>
+  <si>
+    <t>Sıfırla</t>
+  </si>
+  <si>
+    <r>
+      <t>إعادة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>تعيين</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ặt lại</t>
+    </r>
+  </si>
+  <si>
+    <t>รีเซ็ต</t>
+  </si>
+  <si>
+    <t>Ulang</t>
+  </si>
+  <si>
+    <t>Set Semula</t>
+  </si>
+  <si>
+    <t>cert_title</t>
+  </si>
+  <si>
+    <t>인증 사진</t>
+  </si>
+  <si>
+    <t>Authentication Photo</t>
+  </si>
+  <si>
+    <r>
+      <t>認証</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写真</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>认证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>照片</t>
+    </r>
+  </si>
+  <si>
+    <t>認證照片</t>
+  </si>
+  <si>
+    <t>Photo d'authentification</t>
+  </si>
+  <si>
+    <t>Authentifizierungsfoto</t>
+  </si>
+  <si>
+    <t>Foto de autenticación</t>
+  </si>
+  <si>
+    <t>Фото аутентификации</t>
+  </si>
+  <si>
+    <t>Foto de autenticação</t>
+  </si>
+  <si>
+    <t>Foto di autenticazione</t>
+  </si>
+  <si>
+    <t>Authenticatie foto</t>
+  </si>
+  <si>
+    <t>Autentiseringsfoto</t>
+  </si>
+  <si>
+    <t>Todennuskuva</t>
+  </si>
+  <si>
+    <r>
+      <t>Do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rulama Foto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rafı</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>صورة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>التحقق</t>
+    </r>
+  </si>
+  <si>
+    <t>Ảnh xác thực</t>
+  </si>
+  <si>
+    <t>ภาพยืนยัน</t>
+  </si>
+  <si>
+    <t>Foto Verifikasi</t>
+  </si>
+  <si>
+    <t>Gambar Pengesahan</t>
+  </si>
+  <si>
+    <t>cert_rendering</t>
+  </si>
+  <si>
+    <t>이미지를 렌더링 중입니다...</t>
+  </si>
+  <si>
+    <t>Rendering image...</t>
+  </si>
+  <si>
+    <r>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像をレンダリング中...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>正在渲染</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>片...</t>
+    </r>
+  </si>
+  <si>
+    <t>正在渲染圖片...</t>
+  </si>
+  <si>
+    <t>Rendu de l'image...</t>
+  </si>
+  <si>
+    <t>Bild wird gerendert...</t>
+  </si>
+  <si>
+    <t>Renderizando imagen...</t>
+  </si>
+  <si>
+    <t>Отрисовка изображения...</t>
+  </si>
+  <si>
+    <t>Renderizando imagem...</t>
+  </si>
+  <si>
+    <t>Rendering immagine...</t>
+  </si>
+  <si>
+    <t>Afbeelding renderen...</t>
+  </si>
+  <si>
+    <t>Återger bild...</t>
+  </si>
+  <si>
+    <t>Renderöi kuvaa...</t>
+  </si>
+  <si>
+    <r>
+      <t>Görsel i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leniyor...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>جاري</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>معالجة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الصورة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ang kết xuất ảnh...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>กำลังเรนเดอร์ภาพ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <t>Sedang merender gambar...</t>
+  </si>
+  <si>
+    <t>Memaparkan imej...</t>
+  </si>
+  <si>
+    <t>cert_close</t>
+  </si>
+  <si>
+    <t>닫기</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>閉じる</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>關閉</t>
+  </si>
+  <si>
+    <t>Fermer</t>
+  </si>
+  <si>
+    <t>Schließen</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>Закрыть</t>
+  </si>
+  <si>
+    <t>Fechar</t>
+  </si>
+  <si>
+    <t>Chiudi</t>
+  </si>
+  <si>
+    <t>Sluiten</t>
+  </si>
+  <si>
+    <t>Stäng</t>
+  </si>
+  <si>
+    <t>Sulje</t>
+  </si>
+  <si>
+    <t>Kapat</t>
+  </si>
+  <si>
+    <t>إغلاق</t>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>óng</t>
+    </r>
+  </si>
+  <si>
+    <t>ปิด</t>
+  </si>
+  <si>
+    <t>Tutup</t>
+  </si>
+  <si>
+    <t>cert_save_image</t>
+  </si>
+  <si>
+    <t>이미지 저장</t>
+  </si>
+  <si>
+    <t>Save Image</t>
+  </si>
+  <si>
+    <r>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像を保存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>保存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>片</t>
+    </r>
+  </si>
+  <si>
+    <t>儲存圖片</t>
+  </si>
+  <si>
+    <t>Enregistrer l'image</t>
+  </si>
+  <si>
+    <t>Bild speichern</t>
+  </si>
+  <si>
+    <t>Guardar imagen</t>
+  </si>
+  <si>
+    <t>Сохранить изображение</t>
+  </si>
+  <si>
+    <t>Salvar Imagem</t>
+  </si>
+  <si>
+    <t>Salva immagine</t>
+  </si>
+  <si>
+    <t>Afbeelding opslaan</t>
+  </si>
+  <si>
+    <t>Spara bild</t>
+  </si>
+  <si>
+    <t>Tallenna kuva</t>
+  </si>
+  <si>
+    <t>Resmi Kaydet</t>
+  </si>
+  <si>
+    <r>
+      <t>حفظ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الصورة</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u ảnh</t>
+    </r>
+  </si>
+  <si>
+    <t>บันทึกรูปภาพ</t>
+  </si>
+  <si>
+    <t>Simpan Gambar</t>
+  </si>
+  <si>
+    <t>Simpan Imej</t>
+  </si>
+  <si>
+    <t>cert_share</t>
+  </si>
+  <si>
+    <t>공유하기</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>共有</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>Partager</t>
+  </si>
+  <si>
+    <t>Teilen</t>
+  </si>
+  <si>
+    <t>Compartir</t>
+  </si>
+  <si>
+    <t>Поделиться</t>
+  </si>
+  <si>
+    <t>Compartilhar</t>
+  </si>
+  <si>
+    <t>Condividi</t>
+  </si>
+  <si>
+    <t>Delen</t>
+  </si>
+  <si>
+    <t>Dela</t>
+  </si>
+  <si>
+    <t>Jaa</t>
+  </si>
+  <si>
+    <r>
+      <t>Payla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+  </si>
+  <si>
+    <t>مشاركة</t>
+  </si>
+  <si>
+    <t>Chia sẻ</t>
+  </si>
+  <si>
+    <t>แชร์</t>
+  </si>
+  <si>
+    <t>Bagikan</t>
+  </si>
+  <si>
+    <t>Kongsi</t>
+  </si>
+  <si>
+    <t>onboarding_title</t>
+  </si>
+  <si>
+    <t>타이머와 인증을 통해 집중력 올리기</t>
+  </si>
+  <si>
+    <t>Boost Focus with Timer and Certification</t>
+  </si>
+  <si>
+    <r>
+      <t>タイマ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と認証で集中力を高める</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过计时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注力</t>
+    </r>
+  </si>
+  <si>
+    <t>透過計時器和認證提升專注力</t>
+  </si>
+  <si>
+    <t>Améliorez votre concentration avec le minuteur et la certification</t>
+  </si>
+  <si>
+    <t>Steigern Sie Ihre Konzentration mit Timer und Zertifizierung</t>
+  </si>
+  <si>
+    <t>Mejora el enfoque con el temporizador y la certificación</t>
+  </si>
+  <si>
+    <t>Повысьте концентрацию с помощью таймера и сертификации</t>
+  </si>
+  <si>
+    <t>Aumente o foco com temporizador e certificação</t>
+  </si>
+  <si>
+    <t>Aumenta la concentrazione con timer e certificazione</t>
+  </si>
+  <si>
+    <t>Verhoog de focus met timer en certificering</t>
+  </si>
+  <si>
+    <t>Öka fokus med timer och certifiering</t>
+  </si>
+  <si>
+    <t>Paranna keskittymistä ajastimen ja sertifioinnin avulla</t>
+  </si>
+  <si>
+    <t>Zamanlayıcı ve sertifika ile odaklanmayı artırın</t>
+  </si>
+  <si>
+    <r>
+      <t>عزز</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>التركيز</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>باستخدام</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>المؤقت</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>والتوثيق</t>
+    </r>
+  </si>
+  <si>
+    <t>Nâng cao sự tập trung với hẹn giờ và chứng nhận</t>
+  </si>
+  <si>
+    <t>เพิ่มสมาธิด้วยตัวจับเวลาและการรับรอง</t>
+  </si>
+  <si>
+    <t>Tingkatkan Fokus dengan Timer dan Verifikasi</t>
+  </si>
+  <si>
+    <t>Tingkatkan Fokus dengan Pemasa dan Pengesahan</t>
+  </si>
+  <si>
+    <t>onboarding_timer_title</t>
+  </si>
+  <si>
+    <t>다이얼을 돌리고 타이머 시작</t>
+  </si>
+  <si>
+    <t>Rotate the dial and start the timer</t>
+  </si>
+  <si>
+    <r>
+      <t>ダイヤルを回してタイマ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を開始</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盘并启动计时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>旋轉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>錶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盤並</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>動計時器</t>
+    </r>
+  </si>
+  <si>
+    <t>Tournez le cadran et démarrez le minuteur</t>
+  </si>
+  <si>
+    <t>Drehen Sie das Zifferblatt und starten Sie den Timer</t>
+  </si>
+  <si>
+    <t>Gira el dial y inicia el temporizador</t>
+  </si>
+  <si>
+    <t>Поверните циферблат и запустите таймер</t>
+  </si>
+  <si>
+    <t>Gire o dial e inicie o temporizador</t>
+  </si>
+  <si>
+    <t>Ruota il quadrante e avvia il timer</t>
+  </si>
+  <si>
+    <t>Draai aan de draaiknop en start de timer</t>
+  </si>
+  <si>
+    <t>Vrid ratten och starta timern</t>
+  </si>
+  <si>
+    <t>Kierrä valitsinta ja käynnistä ajastin</t>
+  </si>
+  <si>
+    <r>
+      <t>Kadranı çevir ve zamanlayıcıyı ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>أدر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>القرص</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>وابدأ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>المؤقت</t>
+    </r>
+  </si>
+  <si>
+    <t>Xoay nút xoay và bắt đầu hẹn giờ</t>
+  </si>
+  <si>
+    <t>หมุนแป้นหมุนแล้วเริ่มตัวจับเวลา</t>
+  </si>
+  <si>
+    <t>Putar dial dan mulai timer</t>
+  </si>
+  <si>
+    <t>Putar dail dan mula pemasa</t>
+  </si>
+  <si>
+    <t>onboarding_timer_desc</t>
+  </si>
+  <si>
+    <t>원하는 시간만큼 다이얼을 돌려 집중을 시작하세요.</t>
+  </si>
+  <si>
+    <t>Rotate the dial for your desired time to start focusing.</t>
+  </si>
+  <si>
+    <t>集中したい時間だけダイヤルを回して集中を開始します。</t>
+  </si>
+  <si>
+    <r>
+      <t>旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>至所需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>旋轉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>錶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盤至所需時間以開始專注。</t>
+    </r>
+  </si>
+  <si>
+    <t>Tournez le cadran pour la durée souhaitée afin de commencer à vous concentrer.</t>
+  </si>
+  <si>
+    <t>Drehen Sie das Zifferblatt auf die gewünschte Zeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> um mit der Konzentration zu beginnen.</t>
+  </si>
+  <si>
+    <t>Gira el dial el tiempo deseado para empezar a concentrarte.</t>
+  </si>
+  <si>
+    <t>Поверните циферблат на нужное время</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> чтобы начать концентрироваться.</t>
+  </si>
+  <si>
+    <t>Gire o dial pelo tempo desejado para começar a focar.</t>
+  </si>
+  <si>
+    <t>Ruota il quadrante per il tempo desiderato per iniziare a concentrarti.</t>
+  </si>
+  <si>
+    <t>Draai aan de draaiknop voor de gewenste tijd om te beginnen met focussen.</t>
+  </si>
+  <si>
+    <t>Vrid ratten till önskad tid för att börja fokusera.</t>
+  </si>
+  <si>
+    <t>Kierrä valitsinta haluamasi ajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jotta voit aloittaa keskittymisen.</t>
+  </si>
+  <si>
+    <r>
+      <t>Odaklanmaya ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lamak için kadranı istedi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iniz süre kadar çevirin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>أدر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>القرص</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>للوقت</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>المطلوب</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>لبدء</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>التركيز</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Xoay nút xoay theo thời gian mong muốn để bắt đầu tập trung.</t>
+  </si>
+  <si>
+    <t>onboarding_cert_title</t>
+  </si>
+  <si>
+    <t>집중한 후 인증 사진 만들기</t>
+  </si>
+  <si>
+    <t>Create an authentication photo after focusing</t>
+  </si>
+  <si>
+    <r>
+      <t>集中後に認証</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を作成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>照片</t>
+    </r>
+  </si>
+  <si>
+    <t>專注後建立認證照片</t>
+  </si>
+  <si>
+    <t>Créez une photo d'authentification après vous être concentré</t>
+  </si>
+  <si>
+    <t>Erstellen Sie nach dem Fokus ein Authentifizierungsfoto</t>
+  </si>
+  <si>
+    <t>Crea una foto de autenticación después de concentrarte</t>
+  </si>
+  <si>
+    <t>Создайте фото аутентификации после фокусировки</t>
+  </si>
+  <si>
+    <t>Crie uma foto de autenticação após focar</t>
+  </si>
+  <si>
+    <t>Crea una foto di autenticazione dopo esserti concentrato</t>
+  </si>
+  <si>
+    <t>Maak een authenticatie foto na het focussen</t>
+  </si>
+  <si>
+    <t>Skapa ett autentiseringsfoto efter fokus</t>
+  </si>
+  <si>
+    <t>Luo todennuskuva keskittymisen jälkeen</t>
+  </si>
+  <si>
+    <r>
+      <t>Odaklandıktan sonra do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rulama foto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ğ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rafı olu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>إنشاء</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>صورة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>تحقق</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>بعد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>التركيز</t>
+    </r>
+  </si>
+  <si>
+    <t>Tạo ảnh xác thực sau khi tập trung</t>
+  </si>
+  <si>
+    <t>สร้างภาพยืนยันหลังจากโฟกัส</t>
+  </si>
+  <si>
+    <t>Buat foto verifikasi setelah fokus</t>
+  </si>
+  <si>
+    <t>Buat gambar pengesahan selepas fokus</t>
+  </si>
+  <si>
+    <t>onboarding_cert_desc</t>
+  </si>
+  <si>
+    <t>집중을 마친 후 인증 사진을 저장하거나 공유할 수 있어요.</t>
+  </si>
+  <si>
+    <t>After you finish focusing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> you can save or share your authentication photo.</t>
+  </si>
+  <si>
+    <r>
+      <t>集中が終了したら、認証</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を保存または共有できます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注完成后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>您</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以保存或分享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>照片。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>專注完成後，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>您</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以儲存或分享認證照片。</t>
+    </r>
+  </si>
+  <si>
+    <t>Une fois la concentration terminée</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vous pouvez enregistrer ou partager votre photo d'authentification.</t>
+  </si>
+  <si>
+    <t>Nachdem Sie sich konzentriert haben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> können Sie Ihr Authentifizierungsfoto speichern oder teilen.</t>
+  </si>
+  <si>
+    <t>Una vez que termine de concentrarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> puede guardar o compartir su foto de autenticación.</t>
+  </si>
+  <si>
+    <t>После завершения фокусировки вы можете сохранить или поделиться своей фотографией аутентификации.</t>
+  </si>
+  <si>
+    <t>Depois de terminar de focar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> você pode salvar ou compartilhar sua foto de autenticação.</t>
+  </si>
+  <si>
+    <t>Dopo aver finito di concentrarti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> puoi salvare o condividere la tua foto di autenticazione.</t>
+  </si>
+  <si>
+    <t>Nadat u klaar bent met focussen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kunt u uw authenticatie foto opslaan of delen.</t>
+  </si>
+  <si>
+    <t>När du har fokuserat klart kan du spara eller dela din autentiseringsbild.</t>
+  </si>
+  <si>
+    <t>onboarding_start</t>
+  </si>
+  <si>
+    <t>시작하기</t>
+  </si>
+  <si>
+    <t>Get Started</t>
+  </si>
+  <si>
+    <t>始める</t>
+  </si>
+  <si>
+    <t>Commencer</t>
+  </si>
+  <si>
+    <t>Los geht's</t>
+  </si>
+  <si>
+    <t>Empezar</t>
+  </si>
+  <si>
+    <t>Começar</t>
+  </si>
+  <si>
+    <t>Inizia</t>
+  </si>
+  <si>
+    <t>Aan de slag</t>
+  </si>
+  <si>
+    <t>Kom igång</t>
+  </si>
+  <si>
+    <r>
+      <t>Ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la</t>
+    </r>
+  </si>
+  <si>
+    <t>ابدأ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -318,24 +4071,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,7 +4146,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -407,6 +4180,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -441,9 +4215,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,12 +4391,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
@@ -688,202 +4469,1633 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" ht="18">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="T4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" t="s">
-        <v>79</v>
+    <row r="5" spans="1:21" ht="18">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s">
-        <v>80</v>
+    <row r="6" spans="1:21" ht="18">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18">
+      <c r="A7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18">
+      <c r="A8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18">
+      <c r="A9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18">
+      <c r="A10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18">
+      <c r="A11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18">
+      <c r="A12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18">
+      <c r="A13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="18">
+      <c r="A14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18">
+      <c r="A15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18">
+      <c r="A16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="18">
+      <c r="A17" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="18">
+      <c r="A18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="18">
+      <c r="A19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="18">
+      <c r="A20" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="18">
+      <c r="A21" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="18">
+      <c r="A22" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="18">
+      <c r="A23" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="18">
+      <c r="A24" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="18">
+      <c r="A25" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="18">
+      <c r="A26" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>